--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6507C5DC-5D7A-47DB-AE57-C38CAED2EA1D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A0EF57-3B5C-4F7C-BBC8-F45EAFFF9133}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>1205_1657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,6 +123,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +395,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -432,6 +440,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>

--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A0EF57-3B5C-4F7C-BBC8-F45EAFFF9133}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF61A37-924C-471F-906F-E40B26607A77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last epoch loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num epochs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,30 @@
   </si>
   <si>
     <t>&lt; 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use 20% of train data as validation data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early end at epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,68 +412,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.51417999999999997</v>
       </c>
       <c r="B3" s="1">
         <v>0.96350000000000002</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.48070000000000002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2428999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.56359999999999999</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1</v>
+      <c r="P5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF61A37-924C-471F-906F-E40B26607A77}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF389E6-5DC7-4E59-BFB3-03099A368DA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>early end at epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>train loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,22 @@
   </si>
   <si>
     <t>validation accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_1825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early end at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back to 1205_1636 setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -426,37 +438,43 @@
     <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.51417999999999997</v>
       </c>
@@ -467,10 +485,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.48070000000000002</v>
       </c>
@@ -480,14 +501,17 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="B5" s="1">
         <v>0.8095</v>
       </c>
@@ -501,13 +525,36 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>7</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.51021000000000005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF389E6-5DC7-4E59-BFB3-03099A368DA8}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25A4C85-AD49-41D3-8937-AD8C1FC38C73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,9 @@
   <si>
     <t>back to 1205_1636 setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early stopping, a learning rate scheduler, regularization, stronger augmentation, and dropout</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,6 +560,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25A4C85-AD49-41D3-8937-AD8C1FC38C73}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF8516A-F21B-4A5E-9075-FE1BEDA0FDA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,15 +87,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>early end at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>back to 1205_1636 setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>early stopping, a learning rate scheduler, regularization, stronger augmentation, and dropout</t>
+    <t>early stop at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early stopping, warm up, slow down, random sample, random split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some trials, not successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -471,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -557,11 +562,16 @@
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/training_log.xlsx
+++ b/training_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50772f30bd668d95/Documents/NYCU/ML/hw4/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF8516A-F21B-4A5E-9075-FE1BEDA0FDA6}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_AD4DBB64A54DDB1B405E38FC2D1807BF4E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEDBAAC-1E55-4BD8-B614-27295BA1884D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>new changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,74 @@
   </si>
   <si>
     <t>some trials, not successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_2205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not triggered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val fraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205_2216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower lr factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower lr patience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early stop patience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maybe add some L2 or other method to prevent overfitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score higher when val acc higher or loss smaller, but gap is big. Maybe overfitted?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train longer, don't mix train and val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206_0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,9 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -432,147 +503,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>0.51417999999999997</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.96350000000000002</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="N3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>0.48070000000000002</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.8095</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1.2428999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.56359999999999999</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="N5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
+      <c r="P5" s="1">
         <v>7</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>0.51021000000000005</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.88790000000000002</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="N6" s="1">
         <v>10</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="1" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0.48751</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.7107</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.50736999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9425</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
